--- a/dados/ibge_cap_transbordo.xlsx
+++ b/dados/ibge_cap_transbordo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\IC\Progs\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C9EAD374-747A-4923-8B29-002064EDD037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453ECAAA-5A1D-4986-84BF-0C6182D5D2F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="14355" windowHeight="11385" xr2:uid="{E09D3797-58CD-4760-94E4-514FE76D91BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E09D3797-58CD-4760-94E4-514FE76D91BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,25 +449,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>374689.83279999997</v>
+        <v>240458.44399999999</v>
       </c>
       <c r="B2">
-        <v>4278716.1551999999</v>
+        <v>2745880.2960000001</v>
       </c>
       <c r="C2">
-        <v>1136156.2671999999</v>
+        <v>729132.05599999998</v>
       </c>
       <c r="D2">
-        <v>459297.2144</v>
+        <v>294755.51200000005</v>
       </c>
       <c r="E2">
-        <v>277995.68239999999</v>
+        <v>178404.65200000003</v>
       </c>
       <c r="F2">
-        <v>4411670.6119999997</v>
+        <v>2831204.26</v>
       </c>
       <c r="G2">
-        <v>1148243.0360000001</v>
+        <v>736888.78000000014</v>
       </c>
     </row>
   </sheetData>
